--- a/DigSite/New Arcaism/uarm 2025 1/Logica/Raymond/Lógica y Argumentación - 1, 2, 8 - 2024.2/negación de la negación.xlsx
+++ b/DigSite/New Arcaism/uarm 2025 1/Logica/Raymond/Lógica y Argumentación - 1, 2, 8 - 2024.2/negación de la negación.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitData\ArchaeologyJourney\DigSite\New Arcaism\uarm 2025 1\Logica\Raymond\Lógica y Argumentación - 1, 2, 8 - 2024.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EB4DF2-A5EC-4014-B69F-B4E29FD72D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD464BF-7F11-4653-8B82-2C9A38A2010E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7665" yWindow="465" windowWidth="12855" windowHeight="9750" xr2:uid="{56AD7302-DA3A-4B0F-9A3C-1523436F7D54}"/>
+    <workbookView xWindow="7800" yWindow="180" windowWidth="12690" windowHeight="10665" xr2:uid="{56AD7302-DA3A-4B0F-9A3C-1523436F7D54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t xml:space="preserve">Grupos de Lógica - Prácticas - Fernando García </t>
   </si>
@@ -121,13 +121,25 @@
   </si>
   <si>
     <t>grupo3</t>
+  </si>
+  <si>
+    <t>trabajo grupal 2</t>
+  </si>
+  <si>
+    <t>parte 1</t>
+  </si>
+  <si>
+    <t>parte 3</t>
+  </si>
+  <si>
+    <t>nota</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +150,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -163,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -171,6 +190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52402EC4-2AF4-43A8-AC2E-CA0615578C59}">
-  <dimension ref="B2:G30"/>
+  <dimension ref="B2:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +516,7 @@
     <col min="3" max="3" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,15 +525,18 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -526,11 +549,23 @@
       <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -543,40 +578,65 @@
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="3">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="G6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="3">
+        <v>18</v>
+      </c>
+      <c r="K6" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="G7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="3">
+        <v>18</v>
+      </c>
+      <c r="K7" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="G8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="3">
+        <v>18</v>
+      </c>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>7</v>
       </c>
@@ -589,32 +649,56 @@
       <c r="F11">
         <v>6</v>
       </c>
-      <c r="G11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="3">
+        <v>18</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="G12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="3">
+        <v>18</v>
+      </c>
+      <c r="K12" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="G13">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="3">
+        <v>18</v>
+      </c>
+      <c r="K13" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -627,40 +711,67 @@
       <c r="F16">
         <v>3</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="K16" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K17" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>12</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K18" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>13</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K19" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -673,70 +784,102 @@
       <c r="F22">
         <v>3</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>6</v>
+      </c>
+      <c r="J22">
+        <v>6</v>
+      </c>
+      <c r="K22" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>16</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K23" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>17</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K24" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>18</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>19</v>
       </c>
       <c r="C27" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>22</v>
       </c>
       <c r="D28" t="s">
         <v>30</v>
       </c>
-      <c r="G28">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="3">
+        <v>18</v>
+      </c>
+      <c r="K28" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>23</v>
       </c>
       <c r="D29" t="s">
         <v>31</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>24</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="3">
         <v>13</v>
+      </c>
+      <c r="K30" s="3">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
